--- a/Test.xlsx
+++ b/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Balance sheet</t>
   </si>
@@ -114,14 +114,33 @@
   </si>
   <si>
     <t>Equity</t>
+  </si>
+  <si>
+    <t>Preferred equity</t>
+  </si>
+  <si>
+    <t>Authorized shares</t>
+  </si>
+  <si>
+    <t>Outstanding shares</t>
+  </si>
+  <si>
+    <t>Issued shares</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="# ##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="# ##0.00"/>
+    <numFmt numFmtId="165" formatCode="# ##0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -175,14 +194,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -197,20 +216,20 @@
       </c>
     </row>
     <row r="3">
+      <c r="B3" t="n">
+        <v>2018.0</v>
+      </c>
       <c r="C3" t="n">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2018.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="4">
@@ -227,120 +246,120 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="n" s="1">
+        <v>11946.0</v>
+      </c>
       <c r="C6" t="n" s="1">
-        <v>20289.0</v>
+        <v>11356.0</v>
       </c>
       <c r="D6" t="n" s="1">
-        <v>25913.0</v>
+        <v>13576.0</v>
       </c>
       <c r="E6" t="n" s="1">
-        <v>48844.0</v>
+        <v>14224.0</v>
       </c>
       <c r="F6" t="n" s="1">
-        <v>38016.0</v>
-      </c>
-      <c r="G6" t="n" s="1">
-        <v>34940.0</v>
+        <v>13931.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="n" s="1">
+        <v>121822.0</v>
+      </c>
       <c r="C7" t="n" s="1">
-        <v>53892.0</v>
+        <v>122463.0</v>
       </c>
       <c r="D7" t="n" s="1">
-        <v>40388.0</v>
+        <v>122951.0</v>
       </c>
       <c r="E7" t="n" s="1">
-        <v>51713.0</v>
+        <v>116110.0</v>
       </c>
       <c r="F7" t="n" s="1">
-        <v>52927.0</v>
-      </c>
-      <c r="G7" t="n" s="1">
-        <v>27699.0</v>
+        <v>90818.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="n" s="1">
+        <v>26481.0</v>
+      </c>
       <c r="C8" t="n" s="1">
-        <v>35673.0</v>
+        <v>29524.0</v>
       </c>
       <c r="D8" t="n" s="1">
-        <v>48995.0</v>
+        <v>32011.0</v>
       </c>
       <c r="E8" t="n" s="1">
-        <v>45804.0</v>
+        <v>38043.0</v>
       </c>
       <c r="F8" t="n" s="1">
-        <v>37445.0</v>
-      </c>
-      <c r="G8" t="n" s="1">
-        <v>51506.0</v>
+        <v>44261.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="n" s="1">
+        <v>2662.0</v>
+      </c>
       <c r="C9" t="n" s="1">
-        <v>4855.0</v>
+        <v>2063.0</v>
       </c>
       <c r="D9" t="n" s="1">
-        <v>3956.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E9" t="n" s="1">
-        <v>4106.0</v>
+        <v>2636.0</v>
       </c>
       <c r="F9" t="n" s="1">
-        <v>4061.0</v>
-      </c>
-      <c r="G9" t="n" s="1">
-        <v>6580.0</v>
+        <v>3742.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="n" s="1">
+        <v>6751.0</v>
+      </c>
       <c r="C10" t="n" s="1">
-        <v>13936.0</v>
+        <v>10146.0</v>
       </c>
       <c r="D10" t="n" s="1">
-        <v>12087.0</v>
+        <v>11482.0</v>
       </c>
       <c r="E10" t="n" s="1">
-        <v>12352.0</v>
+        <v>13393.0</v>
       </c>
       <c r="F10" t="n" s="1">
-        <v>11264.0</v>
-      </c>
-      <c r="G10" t="n" s="1">
-        <v>14111.0</v>
+        <v>16932.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
         <v>8</v>
       </c>
+      <c r="B11" t="n" s="5">
+        <v>169662.0</v>
+      </c>
       <c r="C11" t="n" s="5">
-        <v>128645.0</v>
+        <v>175552.0</v>
       </c>
       <c r="D11" t="n" s="5">
-        <v>131339.0</v>
+        <v>181915.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>162819.0</v>
+        <v>184406.0</v>
       </c>
       <c r="F11" t="n" s="5">
-        <v>143713.0</v>
-      </c>
-      <c r="G11" t="n" s="5">
-        <v>134836.0</v>
+        <v>169684.0</v>
       </c>
     </row>
     <row r="12">
@@ -352,46 +371,49 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13" t="n" s="1">
+        <v>36146.0</v>
+      </c>
       <c r="C13" t="n" s="1">
-        <v>33783.0</v>
+        <v>43856.0</v>
       </c>
       <c r="D13" t="n" s="1">
-        <v>41304.0</v>
+        <v>52904.0</v>
       </c>
       <c r="E13" t="n" s="1">
-        <v>37378.0</v>
+        <v>70803.0</v>
       </c>
       <c r="F13" t="n" s="1">
-        <v>36766.0</v>
-      </c>
-      <c r="G13" t="n" s="1">
-        <v>39440.0</v>
+        <v>87546.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="B14" t="n" s="1">
+        <v>1862.0</v>
+      </c>
       <c r="C14" t="n" s="1">
-        <v>194714.0</v>
+        <v>2649.0</v>
       </c>
       <c r="D14" t="n" s="1">
-        <v>170799.0</v>
+        <v>2965.0</v>
       </c>
       <c r="E14" t="n" s="1">
-        <v>105341.0</v>
+        <v>5984.0</v>
       </c>
       <c r="F14" t="n" s="1">
-        <v>100887.0</v>
-      </c>
-      <c r="G14" t="n" s="1">
-        <v>127877.0</v>
+        <v>6891.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
+      <c r="B15" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="C15" t="n" s="1">
         <v>0.0</v>
       </c>
@@ -402,9 +424,6 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G15" t="n" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -412,86 +431,89 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
+      <c r="B16" t="n" s="1">
+        <v>8053.0</v>
+      </c>
       <c r="C16" t="n" s="1">
-        <v>2298.0</v>
+        <v>7750.0</v>
       </c>
       <c r="D16" t="n" s="1">
-        <v>0.0</v>
+        <v>7038.0</v>
       </c>
       <c r="E16" t="n" s="1">
-        <v>0.0</v>
+        <v>7800.0</v>
       </c>
       <c r="F16" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G16" t="n" s="1">
-        <v>0.0</v>
+        <v>11298.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
+      <c r="B17" t="n" s="1">
+        <v>35683.0</v>
+      </c>
       <c r="C17" t="n" s="1">
-        <v>5717.0</v>
+        <v>42026.0</v>
       </c>
       <c r="D17" t="n" s="1">
-        <v>0.0</v>
+        <v>43351.0</v>
       </c>
       <c r="E17" t="n" s="1">
-        <v>0.0</v>
+        <v>49711.0</v>
       </c>
       <c r="F17" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G17" t="n" s="1">
-        <v>0.0</v>
+        <v>67524.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
+      <c r="B18" t="n" s="1">
+        <v>7442.0</v>
+      </c>
       <c r="C18" t="n" s="1">
-        <v>10162.0</v>
+        <v>14723.0</v>
       </c>
       <c r="D18" t="n" s="1">
-        <v>22283.0</v>
+        <v>13138.0</v>
       </c>
       <c r="E18" t="n" s="1">
-        <v>32978.0</v>
+        <v>15075.0</v>
       </c>
       <c r="F18" t="n" s="1">
-        <v>42522.0</v>
-      </c>
-      <c r="G18" t="n" s="1">
-        <v>48849.0</v>
+        <v>21897.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
         <v>16</v>
       </c>
+      <c r="B19" t="n" s="5">
+        <v>89186.0</v>
+      </c>
       <c r="C19" t="n" s="5">
-        <v>246674.0</v>
+        <v>111004.0</v>
       </c>
       <c r="D19" t="n" s="5">
-        <v>234386.0</v>
+        <v>119396.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>175697.0</v>
+        <v>149373.0</v>
       </c>
       <c r="F19" t="n" s="5">
-        <v>180175.0</v>
-      </c>
-      <c r="G19" t="n" s="5">
-        <v>216166.0</v>
+        <v>195156.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
+      <c r="B20" t="n" s="5">
+        <v>0.0</v>
+      </c>
       <c r="C20" t="n" s="5">
         <v>0.0</v>
       </c>
@@ -502,9 +524,6 @@
         <v>0.0</v>
       </c>
       <c r="F20" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G20" t="n" s="5">
         <v>0.0</v>
       </c>
     </row>
@@ -512,20 +531,20 @@
       <c r="A21" t="s" s="4">
         <v>18</v>
       </c>
+      <c r="B21" t="n" s="5">
+        <v>258848.0</v>
+      </c>
       <c r="C21" t="n" s="5">
-        <v>375319.0</v>
+        <v>286556.0</v>
       </c>
       <c r="D21" t="n" s="5">
-        <v>365725.0</v>
+        <v>301311.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>338516.0</v>
+        <v>333779.0</v>
       </c>
       <c r="F21" t="n" s="5">
-        <v>323888.0</v>
-      </c>
-      <c r="G21" t="n" s="5">
-        <v>351002.0</v>
+        <v>364840.0</v>
       </c>
     </row>
     <row r="22">
@@ -542,120 +561,120 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
+      <c r="B24" t="n" s="1">
+        <v>8617.0</v>
+      </c>
       <c r="C24" t="n" s="1">
-        <v>49049.0</v>
+        <v>9382.0</v>
       </c>
       <c r="D24" t="n" s="1">
-        <v>55888.0</v>
+        <v>12530.0</v>
       </c>
       <c r="E24" t="n" s="1">
-        <v>46236.0</v>
+        <v>15163.0</v>
       </c>
       <c r="F24" t="n" s="1">
-        <v>42296.0</v>
-      </c>
-      <c r="G24" t="n" s="1">
-        <v>54763.0</v>
+        <v>19000.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
+      <c r="B25" t="n" s="1">
+        <v>3998.0</v>
+      </c>
       <c r="C25" t="n" s="1">
-        <v>18473.0</v>
+        <v>5516.0</v>
       </c>
       <c r="D25" t="n" s="1">
-        <v>20748.0</v>
+        <v>3749.0</v>
       </c>
       <c r="E25" t="n" s="1">
-        <v>16240.0</v>
+        <v>8072.0</v>
       </c>
       <c r="F25" t="n" s="1">
-        <v>13769.0</v>
-      </c>
-      <c r="G25" t="n" s="1">
-        <v>15613.0</v>
+        <v>2749.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>23</v>
       </c>
+      <c r="B26" t="n" s="1">
+        <v>2121.0</v>
+      </c>
       <c r="C26" t="n" s="1">
-        <v>0.0</v>
+        <v>5665.0</v>
       </c>
       <c r="D26" t="n" s="1">
-        <v>0.0</v>
+        <v>2130.0</v>
       </c>
       <c r="E26" t="n" s="1">
-        <v>0.0</v>
+        <v>2174.0</v>
       </c>
       <c r="F26" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G26" t="n" s="1">
-        <v>0.0</v>
+        <v>4067.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>24</v>
       </c>
+      <c r="B27" t="n" s="1">
+        <v>28905.0</v>
+      </c>
       <c r="C27" t="n" s="1">
-        <v>7548.0</v>
+        <v>32676.0</v>
       </c>
       <c r="D27" t="n" s="1">
-        <v>7543.0</v>
+        <v>36000.0</v>
       </c>
       <c r="E27" t="n" s="1">
-        <v>5522.0</v>
+        <v>41525.0</v>
       </c>
       <c r="F27" t="n" s="1">
-        <v>6643.0</v>
-      </c>
-      <c r="G27" t="n" s="1">
-        <v>7612.0</v>
+        <v>45538.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>25</v>
       </c>
+      <c r="B28" t="n" s="1">
+        <v>16968.0</v>
+      </c>
       <c r="C28" t="n" s="1">
-        <v>25744.0</v>
+        <v>21846.0</v>
       </c>
       <c r="D28" t="n" s="1">
-        <v>32687.0</v>
+        <v>20031.0</v>
       </c>
       <c r="E28" t="n" s="1">
-        <v>37720.0</v>
+        <v>23897.0</v>
       </c>
       <c r="F28" t="n" s="1">
-        <v>42684.0</v>
-      </c>
-      <c r="G28" t="n" s="1">
-        <v>47493.0</v>
+        <v>27795.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
         <v>16</v>
       </c>
+      <c r="B29" t="n" s="5">
+        <v>58488.0</v>
+      </c>
       <c r="C29" t="n" s="5">
-        <v>100814.0</v>
+        <v>69420.0</v>
       </c>
       <c r="D29" t="n" s="5">
-        <v>116866.0</v>
+        <v>72310.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>105718.0</v>
+        <v>88657.0</v>
       </c>
       <c r="F29" t="n" s="5">
-        <v>105392.0</v>
-      </c>
-      <c r="G29" t="n" s="5">
-        <v>125481.0</v>
+        <v>95082.0</v>
       </c>
     </row>
     <row r="30">
@@ -667,106 +686,109 @@
       <c r="A31" t="s">
         <v>27</v>
       </c>
+      <c r="B31" t="n" s="1">
+        <v>77810.0</v>
+      </c>
       <c r="C31" t="n" s="1">
-        <v>97207.0</v>
+        <v>72850.0</v>
       </c>
       <c r="D31" t="n" s="1">
-        <v>93735.0</v>
+        <v>67249.0</v>
       </c>
       <c r="E31" t="n" s="1">
-        <v>91807.0</v>
+        <v>59703.0</v>
       </c>
       <c r="F31" t="n" s="1">
-        <v>98667.0</v>
-      </c>
-      <c r="G31" t="n" s="1">
-        <v>109106.0</v>
+        <v>58521.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>28</v>
       </c>
+      <c r="B32" t="n" s="1">
+        <v>541.0</v>
+      </c>
       <c r="C32" t="n" s="1">
-        <v>31504.0</v>
+        <v>233.0</v>
       </c>
       <c r="D32" t="n" s="1">
-        <v>426.0</v>
+        <v>204.0</v>
       </c>
       <c r="E32" t="n" s="1">
-        <v>0.0</v>
+        <v>198.0</v>
       </c>
       <c r="F32" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G32" t="n" s="1">
-        <v>0.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>24</v>
       </c>
+      <c r="B33" t="n" s="1">
+        <v>3815.0</v>
+      </c>
       <c r="C33" t="n" s="1">
-        <v>2836.0</v>
+        <v>4530.0</v>
       </c>
       <c r="D33" t="n" s="1">
-        <v>2797.0</v>
+        <v>3180.0</v>
       </c>
       <c r="E33" t="n" s="1">
-        <v>0.0</v>
+        <v>2616.0</v>
       </c>
       <c r="F33" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G33" t="n" s="1">
-        <v>0.0</v>
+        <v>2870.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>29</v>
       </c>
+      <c r="B34" t="n" s="1">
+        <v>35476.0</v>
+      </c>
       <c r="C34" t="n" s="1">
-        <v>8911.0</v>
+        <v>37193.0</v>
       </c>
       <c r="D34" t="n" s="1">
-        <v>44754.0</v>
+        <v>40064.0</v>
       </c>
       <c r="E34" t="n" s="1">
-        <v>50503.0</v>
+        <v>40617.0</v>
       </c>
       <c r="F34" t="n" s="1">
-        <v>54490.0</v>
-      </c>
-      <c r="G34" t="n" s="1">
-        <v>53325.0</v>
+        <v>41595.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
         <v>30</v>
       </c>
+      <c r="B35" t="n" s="5">
+        <v>117642.0</v>
+      </c>
       <c r="C35" t="n" s="5">
-        <v>140458.0</v>
+        <v>114806.0</v>
       </c>
       <c r="D35" t="n" s="5">
-        <v>141712.0</v>
+        <v>110697.0</v>
       </c>
       <c r="E35" t="n" s="5">
-        <v>142310.0</v>
+        <v>103134.0</v>
       </c>
       <c r="F35" t="n" s="5">
-        <v>153157.0</v>
-      </c>
-      <c r="G35" t="n" s="5">
-        <v>162431.0</v>
+        <v>103216.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>31</v>
       </c>
+      <c r="B36" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="C36" t="n" s="1">
         <v>0.0</v>
       </c>
@@ -777,9 +799,6 @@
         <v>0.0</v>
       </c>
       <c r="F36" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G36" t="n" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -787,20 +806,20 @@
       <c r="A37" t="s">
         <v>32</v>
       </c>
+      <c r="B37" t="n" s="1">
+        <v>5568.0</v>
+      </c>
       <c r="C37" t="n" s="1">
-        <v>0.0</v>
+        <v>6188.0</v>
       </c>
       <c r="D37" t="n" s="1">
-        <v>0.0</v>
+        <v>7671.0</v>
       </c>
       <c r="E37" t="n" s="1">
-        <v>0.0</v>
+        <v>9629.0</v>
       </c>
       <c r="F37" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="1">
-        <v>0.0</v>
+        <v>11489.0</v>
       </c>
     </row>
     <row r="38">
@@ -810,7 +829,132 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>30</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="C44" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="D44" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="E44" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="F44" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="n" s="1">
+        <v>7677.0</v>
+      </c>
+      <c r="C46" t="n" s="1">
+        <v>7643.0</v>
+      </c>
+      <c r="D46" t="n" s="1">
+        <v>7571.0</v>
+      </c>
+      <c r="E46" t="n" s="1">
+        <v>7519.0</v>
+      </c>
+      <c r="F46" t="n" s="1">
+        <v>7464.0</v>
       </c>
     </row>
   </sheetData>
